--- a/data/mistakes/annotated/stanza_UPOS_mistakes_annotated.xlsx
+++ b/data/mistakes/annotated/stanza_UPOS_mistakes_annotated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27f43607ae8ba673/Dokumenty/GitHub/WSMF-presentation/data/mistakes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27f43607ae8ba673/Dokumenty/GitHub/WSMF-presentation/data/mistakes/annotated/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_2A9D09614061B00F62355476585DCE3A8744F4C0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33D55CE3-DDA0-494D-83D2-AD3AC62B064D}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_2A9D09614061B00F62355476585DCE3A8744F4C0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{070D5B93-7D94-4BEF-9465-D2DB6D704A3E}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="2145" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3382,13 +3382,13 @@
     <t>ambiguous</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t>vocabulary</t>
   </si>
   <si>
     <t>grammar</t>
+  </si>
+  <si>
+    <t>unidentified</t>
   </si>
 </sst>
 </file>
@@ -3458,7 +3458,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3476,6 +3476,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4512,7 +4516,7 @@
         <v>49</v>
       </c>
       <c r="F37" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -4572,7 +4576,7 @@
         <v>91</v>
       </c>
       <c r="F40" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -4732,7 +4736,7 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -4792,7 +4796,7 @@
         <v>7</v>
       </c>
       <c r="F51" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -4812,7 +4816,7 @@
         <v>7</v>
       </c>
       <c r="F52" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -4852,7 +4856,7 @@
         <v>91</v>
       </c>
       <c r="F54" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -5072,7 +5076,7 @@
         <v>91</v>
       </c>
       <c r="F65" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -5352,7 +5356,7 @@
         <v>7</v>
       </c>
       <c r="F79" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -5372,7 +5376,7 @@
         <v>7</v>
       </c>
       <c r="F80" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -5432,7 +5436,7 @@
         <v>63</v>
       </c>
       <c r="F83" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -5772,7 +5776,7 @@
         <v>48</v>
       </c>
       <c r="F100" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -5892,7 +5896,7 @@
         <v>48</v>
       </c>
       <c r="F106" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -5912,7 +5916,7 @@
         <v>6</v>
       </c>
       <c r="F107" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -6372,7 +6376,7 @@
         <v>48</v>
       </c>
       <c r="F130" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -6572,7 +6576,7 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -6612,7 +6616,7 @@
         <v>6</v>
       </c>
       <c r="F142" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -6792,7 +6796,7 @@
         <v>6</v>
       </c>
       <c r="F151" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -6952,7 +6956,7 @@
         <v>7</v>
       </c>
       <c r="F159" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -6972,7 +6976,7 @@
         <v>6</v>
       </c>
       <c r="F160" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -6992,7 +6996,7 @@
         <v>27</v>
       </c>
       <c r="F161" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -7012,7 +7016,7 @@
         <v>6</v>
       </c>
       <c r="F162" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -7032,7 +7036,7 @@
         <v>6</v>
       </c>
       <c r="F163" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -7052,7 +7056,7 @@
         <v>6</v>
       </c>
       <c r="F164" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -7072,7 +7076,7 @@
         <v>7</v>
       </c>
       <c r="F165" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -7912,7 +7916,7 @@
         <v>6</v>
       </c>
       <c r="F207" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -8172,7 +8176,7 @@
         <v>6</v>
       </c>
       <c r="F220" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
@@ -8192,7 +8196,7 @@
         <v>7</v>
       </c>
       <c r="F221" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
@@ -8512,7 +8516,7 @@
         <v>63</v>
       </c>
       <c r="F237" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
@@ -8592,7 +8596,7 @@
         <v>7</v>
       </c>
       <c r="F241" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
@@ -8612,7 +8616,7 @@
         <v>6</v>
       </c>
       <c r="F242" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -8632,7 +8636,7 @@
         <v>6</v>
       </c>
       <c r="F243" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -8672,7 +8676,7 @@
         <v>7</v>
       </c>
       <c r="F245" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -8692,7 +8696,7 @@
         <v>6</v>
       </c>
       <c r="F246" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
@@ -8792,7 +8796,7 @@
         <v>63</v>
       </c>
       <c r="F251" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
@@ -8972,7 +8976,7 @@
         <v>6</v>
       </c>
       <c r="F260" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
@@ -9012,7 +9016,7 @@
         <v>7</v>
       </c>
       <c r="F262" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
@@ -9032,7 +9036,7 @@
         <v>6</v>
       </c>
       <c r="F263" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
@@ -9132,7 +9136,7 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
@@ -9152,7 +9156,7 @@
         <v>6</v>
       </c>
       <c r="F269" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
@@ -9292,7 +9296,7 @@
         <v>7</v>
       </c>
       <c r="F276" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
@@ -9352,7 +9356,7 @@
         <v>27</v>
       </c>
       <c r="F279" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
@@ -9552,7 +9556,7 @@
         <v>7</v>
       </c>
       <c r="F289" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
@@ -9652,7 +9656,7 @@
         <v>10</v>
       </c>
       <c r="F294" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
@@ -9752,7 +9756,7 @@
         <v>49</v>
       </c>
       <c r="F299" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
@@ -9892,7 +9896,7 @@
         <v>7</v>
       </c>
       <c r="F306" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
@@ -9992,7 +9996,7 @@
         <v>63</v>
       </c>
       <c r="F311" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
@@ -10152,7 +10156,7 @@
         <v>27</v>
       </c>
       <c r="F319" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
@@ -10472,7 +10476,7 @@
         <v>7</v>
       </c>
       <c r="F335" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
@@ -10532,7 +10536,7 @@
         <v>10</v>
       </c>
       <c r="F338" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
@@ -10592,7 +10596,7 @@
         <v>27</v>
       </c>
       <c r="F341" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
@@ -10912,7 +10916,7 @@
         <v>27</v>
       </c>
       <c r="F357" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
@@ -10932,7 +10936,7 @@
         <v>27</v>
       </c>
       <c r="F358" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
@@ -11112,7 +11116,7 @@
         <v>6</v>
       </c>
       <c r="F367" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
@@ -11212,7 +11216,7 @@
         <v>7</v>
       </c>
       <c r="F372" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
@@ -11232,7 +11236,7 @@
         <v>10</v>
       </c>
       <c r="F373" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
@@ -11252,7 +11256,7 @@
         <v>6</v>
       </c>
       <c r="F374" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
@@ -11352,7 +11356,7 @@
         <v>27</v>
       </c>
       <c r="F379" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
@@ -11652,7 +11656,7 @@
         <v>7</v>
       </c>
       <c r="F394" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
@@ -11672,7 +11676,7 @@
         <v>6</v>
       </c>
       <c r="F395" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
@@ -11692,7 +11696,7 @@
         <v>6</v>
       </c>
       <c r="F396" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
@@ -12292,7 +12296,7 @@
         <v>27</v>
       </c>
       <c r="F426" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
@@ -12732,7 +12736,7 @@
         <v>27</v>
       </c>
       <c r="F448" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
@@ -12812,7 +12816,7 @@
         <v>6</v>
       </c>
       <c r="F452" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.25">
@@ -13132,7 +13136,7 @@
         <v>6</v>
       </c>
       <c r="F468" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
@@ -13672,7 +13676,7 @@
         <v>6</v>
       </c>
       <c r="F495" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.25">
@@ -13732,7 +13736,7 @@
         <v>7</v>
       </c>
       <c r="F498" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.25">
@@ -13792,7 +13796,7 @@
         <v>10</v>
       </c>
       <c r="F501" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.25">
@@ -13832,7 +13836,7 @@
         <v>6</v>
       </c>
       <c r="F503" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.25">
@@ -14112,7 +14116,7 @@
         <v>6</v>
       </c>
       <c r="F517" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.25">
@@ -14272,7 +14276,7 @@
         <v>7</v>
       </c>
       <c r="F525" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.25">
@@ -14332,7 +14336,7 @@
         <v>637</v>
       </c>
       <c r="F528" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.25">
@@ -14612,7 +14616,7 @@
         <v>63</v>
       </c>
       <c r="F542" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.25">
@@ -14732,7 +14736,7 @@
         <v>7</v>
       </c>
       <c r="F548" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.25">
@@ -14792,7 +14796,7 @@
         <v>27</v>
       </c>
       <c r="F551" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.25">
@@ -15252,7 +15256,7 @@
         <v>6</v>
       </c>
       <c r="F574" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.25">
@@ -15772,7 +15776,7 @@
         <v>27</v>
       </c>
       <c r="F600" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="601" spans="1:6" x14ac:dyDescent="0.25">
@@ -15852,7 +15856,7 @@
         <v>27</v>
       </c>
       <c r="F604" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="605" spans="1:6" x14ac:dyDescent="0.25">
@@ -16172,7 +16176,7 @@
         <v>13</v>
       </c>
       <c r="F620" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="621" spans="1:6" x14ac:dyDescent="0.25">
@@ -16972,7 +16976,7 @@
         <v>10</v>
       </c>
       <c r="F660" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="661" spans="1:6" x14ac:dyDescent="0.25">
@@ -17112,7 +17116,7 @@
         <v>91</v>
       </c>
       <c r="F667" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="668" spans="1:6" x14ac:dyDescent="0.25">
@@ -17312,7 +17316,7 @@
         <v>27</v>
       </c>
       <c r="F677" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="678" spans="1:6" x14ac:dyDescent="0.25">
@@ -17492,7 +17496,7 @@
         <v>6</v>
       </c>
       <c r="F686" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="687" spans="1:6" x14ac:dyDescent="0.25">
